--- a/result/calcules_deformation.xlsx
+++ b/result/calcules_deformation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\Documents\insa\Cours_2022-2023\S2\capteur_et_banc_de_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47295603-8749-4FCC-BC38-925C65332954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6CFCCC-CD89-4652-8389-81B971AF69C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{27A3F362-E3C9-4D1E-BEAE-9C0D135C8FC1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>angle: rad</t>
   </si>
@@ -212,7 +212,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>2B compression</a:t>
+              <a:t>2H compression</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -777,7 +777,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>HB</c:v>
+            <c:v>2H</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -904,7 +904,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2H</c:v>
+            <c:v>2B</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1031,7 +1031,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>2B</c:v>
+            <c:v>HB</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1566,7 +1566,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>HB</c:v>
+            <c:v>2H</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1693,7 +1693,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>2H</c:v>
+            <c:v>HB</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1866,8 +1866,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.64541458128396512"/>
-                  <c:y val="0.40153890745978804"/>
+                  <c:x val="4.446024979112663E-2"/>
+                  <c:y val="0.11492995133218534"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2202,6 +2202,1296 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1467412047"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Compression</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2H</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7173841819536238E-3"/>
+                  <c:y val="-3.071686510660479E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$62:$A$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$I$62:$I$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.76923076923077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.46153846153846</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.076923076923077</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.384615384615387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6034-4419-A7BA-E8E613F23B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6057185397433619E-2"/>
+                  <c:y val="6.967699612079474E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$62:$A$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$K$62:$K$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6034-4419-A7BA-E8E613F23B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>HB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6092450313599624E-2"/>
+                  <c:y val="5.9459896102936408E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$62:$A$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$M$62:$M$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6034-4419-A7BA-E8E613F23B44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1533763439"/>
+        <c:axId val="1202434415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1533763439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Angle en degré</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202434415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1202434415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>DR/R0</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1533763439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>flexsensor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$91:$B$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$91:$C$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-205A-4554-A3EA-D66F4B275FF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1533749519"/>
+        <c:axId val="1533766319"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1533749519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Angle en degré</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1533766319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1533766319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Résistance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1533749519"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2845,7 +4135,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>2H compression</a:t>
+              <a:t>2B compression</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3399,7 +4689,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>HB</a:t>
+              <a:t>2H</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3814,7 +5104,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>2H</a:t>
+              <a:t>2B</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4247,7 +5537,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>2B</a:t>
+              <a:t>HB</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4670,7 +5960,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>HB</a:t>
+              <a:t>2H</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5056,7 +6346,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>2H</a:t>
+              <a:t>HB</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5886,6 +7176,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7793,6 +9163,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11961,16 +14363,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>291703</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>781560</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:rowOff>155393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>152638</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>170974</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>653381</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>40345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11997,16 +14399,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>83344</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>682058</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>100965</xdr:rowOff>
+      <xdr:rowOff>122736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>724376</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>170974</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>528433</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>7688</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12142,15 +14544,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>583406</xdr:colOff>
+      <xdr:colOff>659606</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>100966</xdr:rowOff>
+      <xdr:rowOff>111852</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>162878</xdr:colOff>
+      <xdr:colOff>239078</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>169070</xdr:rowOff>
+      <xdr:rowOff>179956</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12178,15 +14580,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200501</xdr:colOff>
+      <xdr:colOff>211387</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>136684</xdr:rowOff>
+      <xdr:rowOff>158456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>59531</xdr:colOff>
+      <xdr:colOff>70417</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>28099</xdr:rowOff>
+      <xdr:rowOff>49871</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12251,12 +14653,12 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>590722</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>126423</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>34636</xdr:colOff>
+      <xdr:colOff>286871</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>155863</xdr:rowOff>
     </xdr:to>
@@ -12291,10 +14693,10 @@
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>348005</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>55439</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>412377</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12316,6 +14718,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Graphique 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E09285-F4DA-FCFD-8C3E-BB131C26BD6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>103414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Graphique 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FB95C8-59B2-DC97-A247-92CBFD08D741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12621,10 +15095,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FCAF4F-3D76-4E0B-BF55-FF2E4DA25147}">
-  <dimension ref="A2:T67"/>
+  <dimension ref="A2:T96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12649,19 +15123,19 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>10</v>
@@ -12847,13 +15321,13 @@
         <v>10</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>10</v>
@@ -13019,7 +15493,7 @@
         <v>36.25</v>
       </c>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>9</v>
       </c>
@@ -13036,13 +15510,13 @@
         <v>5</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>10</v>
@@ -13053,11 +15527,11 @@
       <c r="M61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O61" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>0</v>
+      </c>
       <c r="B62">
         <v>180</v>
       </c>
@@ -13098,11 +15572,11 @@
         <f>($L$62-L62)*100/$L$62</f>
         <v>0</v>
       </c>
-      <c r="O62">
-        <v>14500</v>
-      </c>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>30</v>
+      </c>
       <c r="B63">
         <v>150</v>
       </c>
@@ -13143,14 +15617,14 @@
         <f>($L$62-L63)*100/$L$62</f>
         <v>6</v>
       </c>
-      <c r="O63">
-        <v>24000</v>
-      </c>
       <c r="T63" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>60</v>
+      </c>
       <c r="B64">
         <v>120</v>
       </c>
@@ -13191,11 +15665,11 @@
         <f>($L$62-L64)*100/$L$62</f>
         <v>12</v>
       </c>
-      <c r="O64">
-        <v>34000</v>
-      </c>
     </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>90</v>
+      </c>
       <c r="B65">
         <v>90</v>
       </c>
@@ -13236,11 +15710,11 @@
         <f>($L$62-L65)*100/$L$62</f>
         <v>22</v>
       </c>
-      <c r="O65">
-        <v>40000</v>
-      </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>120</v>
+      </c>
       <c r="B66">
         <v>60</v>
       </c>
@@ -13281,12 +15755,60 @@
         <f>($L$62-L66)*100/$L$62</f>
         <v>28</v>
       </c>
-      <c r="O66">
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92">
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93">
+        <v>60</v>
+      </c>
+      <c r="C93">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>90</v>
+      </c>
+      <c r="C94">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95">
+        <v>120</v>
+      </c>
+      <c r="C95">
         <v>50000</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="O67">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96">
+        <v>140</v>
+      </c>
+      <c r="C96">
         <v>64000</v>
       </c>
     </row>

--- a/result/calcules_deformation.xlsx
+++ b/result/calcules_deformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adrie\Documents\insa\Cours_2022-2023\S2\capteur_et_banc_de_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6CFCCC-CD89-4652-8389-81B971AF69C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D972500-54A3-4380-83FA-3FA238DB13CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{27A3F362-E3C9-4D1E-BEAE-9C0D135C8FC1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
   <si>
     <t>angle: rad</t>
   </si>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -160,6 +160,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3187,7 +3188,37 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -3218,27 +3249,27 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Feuil1!$C$91:$C$96</c:f>
+              <c:f>Feuil1!$D$91:$D$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24000</c:v>
+                  <c:v>-65.517241379310349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34000</c:v>
+                  <c:v>-134.48275862068965</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40000</c:v>
+                  <c:v>-175.86206896551724</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50000</c:v>
+                  <c:v>-244.82758620689654</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64000</c:v>
+                  <c:v>-341.37931034482756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14761,16 +14792,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>163285</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>103414</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>154320</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>22731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>89646</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>142153</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15097,8 +15128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FCAF4F-3D76-4E0B-BF55-FF2E4DA25147}">
   <dimension ref="A2:T96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" topLeftCell="C88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W105" sqref="W105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15756,60 +15787,87 @@
         <v>28</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
         <v>9</v>
       </c>
       <c r="C90" t="s">
         <v>12</v>
       </c>
+      <c r="D90" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
         <v>14500</v>
       </c>
+      <c r="D91">
+        <f>($C$91-C91)*100/$C$91</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>30</v>
       </c>
       <c r="C92">
         <v>24000</v>
       </c>
+      <c r="D92">
+        <f>($C$91-C92)*100/$C$91</f>
+        <v>-65.517241379310349</v>
+      </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>60</v>
       </c>
       <c r="C93">
         <v>34000</v>
       </c>
+      <c r="D93">
+        <f t="shared" ref="D92:D96" si="10">($C$91-C93)*100/$C$91</f>
+        <v>-134.48275862068965</v>
+      </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>90</v>
       </c>
       <c r="C94">
         <v>40000</v>
       </c>
+      <c r="D94">
+        <f t="shared" si="10"/>
+        <v>-175.86206896551724</v>
+      </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>120</v>
       </c>
       <c r="C95">
         <v>50000</v>
       </c>
+      <c r="D95">
+        <f t="shared" si="10"/>
+        <v>-244.82758620689654</v>
+      </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>140</v>
       </c>
       <c r="C96">
         <v>64000</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="10"/>
+        <v>-341.37931034482756</v>
       </c>
     </row>
   </sheetData>
